--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="14625" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>获得技能  随机</t>
   </si>
   <si>
-    <t>2001002,200103,2001004,2001005,2001006</t>
+    <t>2001002,2001003,2001004,2001005,2001006</t>
   </si>
   <si>
     <t>1,1,1,1,1</t>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14625" windowHeight="11670"/>
+    <workbookView windowWidth="12270" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-100 固定技能组随机 valueList：1,2 表示 技能id组 weightList ： 权重
-200 升级武器 valueList：1,2 表示 升1级和 升2级 中随机 weightList ： 权重
-300 获得宝物 valueList：1,2 表示 1 2 级中随机 weightList ： 权重
+100 固定技能组随机 （valueList：1,2） 表示 技能id组随机 weightList ： 权重
+200 升级武器 （valueList：1,2）表示 升1级和 升2级 中随机 weightList ： 权重
+300 获得宝物 （valueList：1,2） 表示 1 2 级中随机 weightList ： 权重
+400 获得队友 （valueList：1,2） 队友实体 id 组随机 weightList ： 权重
 </t>
         </r>
       </text>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -180,6 +181,12 @@
   </si>
   <si>
     <t>获得宝物  1,3等级随机</t>
+  </si>
+  <si>
+    <t>获得一个队友</t>
+  </si>
+  <si>
+    <t>1200101,1200102</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1415,6 +1422,35 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>40000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F15">
+        <v>400</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12270" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
 200 升级武器 （valueList：1,2）表示 升1级和 升2级 中随机 weightList ： 权重
 300 获得宝物 （valueList：1,2） 表示 1 2 级中随机 weightList ： 权重
 400 获得队友 （valueList：1,2） 队友实体 id 组随机 weightList ： 权重
+401 队友获得属性加成 （valueList：1,2） 属性加成buff id 随机 weightList ： 权重
 </t>
         </r>
       </text>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -187,6 +188,12 @@
   </si>
   <si>
     <t>1200101,1200102</t>
+  </si>
+  <si>
+    <t>随机队友获得属性强化</t>
+  </si>
+  <si>
+    <t>14050301</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1449,6 +1456,35 @@
         <v>29</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>40001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F16">
+        <v>401</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
     </row>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="19335" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,12 +359,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1186,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10845"/>
+    <workbookView windowWidth="17565" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>14050301</t>
+  </si>
+  <si>
+    <t>获得技能 随机（升级测试）</t>
+  </si>
+  <si>
+    <t>2100101,2100201,2100301</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>2100101,2100102,2100103,2100104,2100105</t>
   </si>
 </sst>
 </file>
@@ -359,12 +371,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1184,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1325,6 +1337,9 @@
       </c>
       <c r="I4">
         <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -1342,7 +1357,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1369,6 +1384,9 @@
       </c>
       <c r="I8">
         <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -1383,7 +1401,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1410,6 +1428,9 @@
       </c>
       <c r="I11">
         <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:6">
@@ -1430,7 +1451,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1458,8 +1479,11 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1486,6 +1510,46 @@
       </c>
       <c r="I16">
         <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:10">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>90001</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17565" windowHeight="12075"/>
+    <workbookView windowWidth="17220" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,9 @@
 200 升级武器 （valueList：1,2）表示 升1级和 升2级 中随机 weightList ： 权重
 300 获得宝物 （valueList：1,2） 表示 1 2 级中随机 weightList ： 权重
 400 获得队友 （valueList：1,2） 队友实体 id 组随机 weightList ： 权重
-401 队友获得属性加成 （valueList：1,2） 属性加成buff id 随机 weightList ： 权重
-</t>
+401 随机一个队友获得随机属性加成 （valueList：1,2） 属性加成buff id 随机 weightList ： 权重
+402 所有队友获得一个随机属性加成
+500 队长获得随机一个属性加成</t>
         </r>
       </text>
     </comment>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -193,7 +194,16 @@
     <t>随机队友获得属性强化</t>
   </si>
   <si>
-    <t>14050301</t>
+    <t>50601</t>
+  </si>
+  <si>
+    <t>随机一个队友获得一项随机属性强化</t>
+  </si>
+  <si>
+    <t>所有队友获得一项随机属性强化</t>
+  </si>
+  <si>
+    <t>队长获得一项随机属性强化</t>
   </si>
   <si>
     <t>获得技能 随机（升级测试）</t>
@@ -1196,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1515,41 +1525,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:10">
-      <c r="A21" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="B19">
+        <v>40010</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F19">
+        <v>401</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:9">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>40011</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F20">
+        <v>402</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:9">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F23">
+        <v>500</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:10">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>90001</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2">
         <v>15003751</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>100</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21">
+      <c r="G26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="J26">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="1" t="s">
-        <v>38</v>
+    <row r="27" spans="7:7">
+      <c r="G27" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="12105"/>
+    <workbookView windowWidth="14790" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,8 +80,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 选择之前就确定奖励了（随机计算完毕）
-1 选择奖励之后才确定（还没有随机，可能前端只显示类型，选择之后才给奖励）</t>
+0 选择奖励之后才确定（还没有随机，可能前端只显示类型，选择之后才给奖励）
+1 选择之前就确定奖励了（随机计算完毕）
+</t>
         </r>
       </text>
     </comment>
@@ -381,12 +382,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1208,8 +1209,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14790" windowHeight="12105"/>
+    <workbookView windowWidth="16815" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,8 @@
 400 获得队友 （valueList：1,2） 队友实体 id 组随机 weightList ： 权重
 401 随机一个队友获得随机属性加成 （valueList：1,2） 属性加成buff id 随机 weightList ： 权重
 402 所有队友获得一个随机属性加成
-500 队长获得随机一个属性加成</t>
+500 队长获得随机一个属性加成
+600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给</t>
         </r>
       </text>
     </comment>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -205,6 +206,12 @@
   </si>
   <si>
     <t>队长获得一项随机属性强化</t>
+  </si>
+  <si>
+    <t>增加战银</t>
+  </si>
+  <si>
+    <t>200,500</t>
   </si>
   <si>
     <t>获得技能 随机（升级测试）</t>
@@ -382,12 +389,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1207,10 +1214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1613,41 +1620,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="B25">
+        <v>60001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F25">
+        <v>600</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
         <v>90001</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2">
         <v>15003751</v>
       </c>
-      <c r="F26">
+      <c r="F29">
         <v>100</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26">
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="J29">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7">
-      <c r="G27" s="1" t="s">
-        <v>41</v>
+    <row r="30" spans="7:7">
+      <c r="G30" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16815" windowHeight="12105"/>
+    <workbookView windowWidth="19035" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,8 @@
           </rPr>
           <t xml:space="preserve">
 100 固定技能组随机 （valueList：1,2） 表示 技能id组随机 weightList ： 权重
+101 随机给专属小招技能经验
+102 随机一个队长技能增加技能经验
 200 升级武器 （valueList：1,2）表示 升1级和 升2级 中随机 weightList ： 权重
 300 获得宝物 （valueList：1,2） 表示 1 2 级中随机 weightList ： 权重
 400 获得队友 （valueList：1,2） 队友实体 id 组随机 weightList ： 权重
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -175,6 +177,18 @@
     <t>1,1,1,1,1</t>
   </si>
   <si>
+    <t>给与专属小招技能经验</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>50,40,10</t>
+  </si>
+  <si>
+    <t>给与随机一个队长技能经验</t>
+  </si>
+  <si>
     <t>武器升级</t>
   </si>
   <si>
@@ -223,7 +237,10 @@
     <t>1,1,1</t>
   </si>
   <si>
-    <t>2100101,2100102,2100103,2100104,2100105</t>
+    <t>获得技能 随机（专属技能升级测试）</t>
+  </si>
+  <si>
+    <t>2003201</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1360,96 +1377,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F5">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F6">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>20000</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15003752</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
+    <row r="8" spans="3:5">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="3:5">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>30000</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F11">
-        <v>300</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>20000</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15003752</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="2"/>
@@ -1457,11 +1494,37 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>30000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="2"/>
@@ -1469,218 +1532,257 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="3:6">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
         <v>40000</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2">
         <v>15003753</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>400</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15">
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
         <v>40001</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F18">
+        <v>401</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>40010</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F21">
+        <v>401</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:9">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>40011</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2">
         <v>15003753</v>
       </c>
-      <c r="F16">
-        <v>401</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16">
+      <c r="F22">
+        <v>402</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
         <v>100</v>
       </c>
-      <c r="I16">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>40010</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F19">
-        <v>401</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:9">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>40011</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F20">
-        <v>402</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+    </row>
+    <row r="25" customFormat="1" spans="1:9">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
         <v>50000</v>
       </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F23">
-        <v>500</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>60001</v>
-      </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2">
         <v>15003753</v>
       </c>
       <c r="F25">
+        <v>500</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>60001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F27">
         <v>600</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25">
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
+    <row r="31" customFormat="1" spans="1:10">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
         <v>90001</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2">
         <v>15003751</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>100</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29">
+      <c r="G31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7">
-      <c r="G30" s="1" t="s">
-        <v>43</v>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:10">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>90002</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="10395"/>
+    <workbookView windowWidth="18225" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <t>获得一个队友</t>
   </si>
   <si>
-    <t>1200101,1200102</t>
+    <t>1200021,1200021</t>
   </si>
   <si>
     <t>随机队友获得属性强化</t>
@@ -1233,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -1426,7 +1426,7 @@
         <v>15003751</v>
       </c>
       <c r="F6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18225" windowHeight="10395"/>
+    <workbookView windowWidth="14415" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>给与随机一个队长技能经验</t>
+  </si>
+  <si>
+    <t>获得技能 随机 测试</t>
+  </si>
+  <si>
+    <t>2003401,2003402,2003501,2003502,2003201,2003202</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1</t>
   </si>
   <si>
     <t>武器升级</t>
@@ -1233,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1435,10 +1444,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10010</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="2"/>
@@ -1458,10 +1494,10 @@
         <v>20000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2">
         <v>15003752</v>
@@ -1470,10 +1506,10 @@
         <v>200</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1502,10 +1538,10 @@
         <v>30000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2">
         <v>15003753</v>
@@ -1514,10 +1550,10 @@
         <v>300</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1552,10 +1588,10 @@
         <v>40000</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2">
         <v>15003753</v>
@@ -1564,10 +1600,10 @@
         <v>400</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
         <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1584,10 +1620,10 @@
         <v>40001</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2">
         <v>15003753</v>
@@ -1596,7 +1632,7 @@
         <v>401</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -1616,10 +1652,10 @@
         <v>40010</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2">
         <v>15003753</v>
@@ -1628,10 +1664,10 @@
         <v>401</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1645,10 +1681,10 @@
         <v>40011</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2">
         <v>15003753</v>
@@ -1657,7 +1693,7 @@
         <v>402</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -1674,10 +1710,10 @@
         <v>50000</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2">
         <v>15003753</v>
@@ -1686,7 +1722,7 @@
         <v>500</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -1703,10 +1739,10 @@
         <v>60001</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2">
         <v>15003753</v>
@@ -1715,7 +1751,7 @@
         <v>600</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1729,10 +1765,10 @@
         <v>90001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2">
         <v>15003751</v>
@@ -1741,10 +1777,10 @@
         <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1761,10 +1797,10 @@
         <v>90002</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2">
         <v>15003751</v>
@@ -1773,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H32">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14415" windowHeight="10395"/>
+    <workbookView windowWidth="16995" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <t>获得技能 随机 测试</t>
   </si>
   <si>
-    <t>2003401,2003402,2003501,2003502,2003201,2003202</t>
+    <t>2003401,2003501,2003601,2003701,2003801</t>
   </si>
   <si>
     <t>1,1,1,1,1,1</t>
@@ -1242,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16995" windowHeight="10395"/>
+    <workbookView windowWidth="16125" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
     <t>获得一个队友</t>
   </si>
   <si>
-    <t>1200021,1200021</t>
+    <t>1200101,1200102</t>
   </si>
   <si>
     <t>随机队友获得属性强化</t>
@@ -1242,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16125" windowHeight="10395"/>
+    <workbookView windowWidth="15810" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 101 随机给专属小招技能经验
 102 随机一个队长技能增加技能经验
 200 升级武器 （valueList：1,2）表示 升1级和 升2级 中随机 weightList ： 权重
-300 获得宝物 （valueList：1,2） 表示 1 2 级中随机 weightList ： 权重
+300 获得道具装备 （valueList：1,2） 表示 1 2 级中随机 weightList ： 权重
 400 获得队友 （valueList：1,2） 队友实体 id 组随机 weightList ： 权重
 401 随机一个队友获得随机属性加成 （valueList：1,2） 属性加成buff id 随机 weightList ： 权重
 402 所有队友获得一个随机属性加成
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -207,7 +207,10 @@
     <t>50,50</t>
   </si>
   <si>
-    <t>获得宝物  1,3等级随机</t>
+    <t>获得道具随机</t>
+  </si>
+  <si>
+    <t>100101,100102</t>
   </si>
   <si>
     <t>获得一个队友</t>
@@ -1242,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1550,7 +1553,7 @@
         <v>300</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -1588,10 +1591,10 @@
         <v>40000</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2">
         <v>15003753</v>
@@ -1600,7 +1603,7 @@
         <v>400</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -1620,10 +1623,10 @@
         <v>40001</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2">
         <v>15003753</v>
@@ -1632,7 +1635,7 @@
         <v>401</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -1652,10 +1655,10 @@
         <v>40010</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2">
         <v>15003753</v>
@@ -1664,7 +1667,7 @@
         <v>401</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -1681,10 +1684,10 @@
         <v>40011</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2">
         <v>15003753</v>
@@ -1693,7 +1696,7 @@
         <v>402</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -1710,10 +1713,10 @@
         <v>50000</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2">
         <v>15003753</v>
@@ -1722,7 +1725,7 @@
         <v>500</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -1739,10 +1742,10 @@
         <v>60001</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2">
         <v>15003753</v>
@@ -1751,7 +1754,7 @@
         <v>600</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1765,10 +1768,10 @@
         <v>90001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2">
         <v>15003751</v>
@@ -1777,10 +1780,10 @@
         <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1797,10 +1800,10 @@
         <v>90002</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2">
         <v>15003751</v>
@@ -1809,7 +1812,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H32">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -213,10 +213,13 @@
     <t>100101,100102</t>
   </si>
   <si>
+    <t>1200101,1200102</t>
+  </si>
+  <si>
     <t>获得一个队友</t>
   </si>
   <si>
-    <t>1200101,1200102</t>
+    <t>1200021</t>
   </si>
   <si>
     <t>随机队友获得属性强化</t>
@@ -1245,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1577,11 +1580,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:7">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
@@ -1591,10 +1597,10 @@
         <v>40000</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2">
         <v>15003753</v>
@@ -1603,7 +1609,7 @@
         <v>400</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -1623,10 +1629,10 @@
         <v>40001</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2">
         <v>15003753</v>
@@ -1635,7 +1641,7 @@
         <v>401</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -1655,10 +1661,10 @@
         <v>40010</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2">
         <v>15003753</v>
@@ -1667,7 +1673,7 @@
         <v>401</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -1684,10 +1690,10 @@
         <v>40011</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2">
         <v>15003753</v>
@@ -1696,7 +1702,7 @@
         <v>402</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -1713,10 +1719,10 @@
         <v>50000</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2">
         <v>15003753</v>
@@ -1725,7 +1731,7 @@
         <v>500</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -1742,10 +1748,10 @@
         <v>60001</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2">
         <v>15003753</v>
@@ -1754,7 +1760,7 @@
         <v>600</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1768,10 +1774,10 @@
         <v>90001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2">
         <v>15003751</v>
@@ -1780,10 +1786,10 @@
         <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1800,10 +1806,10 @@
         <v>90002</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2">
         <v>15003751</v>
@@ -1812,7 +1818,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H32">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>50601</t>
+  </si>
+  <si>
+    <t>获得队友（测试上限）</t>
+  </si>
+  <si>
+    <t>1200101,1200102,1000210</t>
   </si>
   <si>
     <t>随机一个队友获得一项随机属性强化</t>
@@ -1248,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1653,6 +1659,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>40002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>0</v>
@@ -1661,10 +1697,10 @@
         <v>40010</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
         <v>15003753</v>
@@ -1690,10 +1726,10 @@
         <v>40011</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2">
         <v>15003753</v>
@@ -1719,10 +1755,10 @@
         <v>50000</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2">
         <v>15003753</v>
@@ -1748,10 +1784,10 @@
         <v>60001</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2">
         <v>15003753</v>
@@ -1760,7 +1796,7 @@
         <v>600</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1774,10 +1810,10 @@
         <v>90001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2">
         <v>15003751</v>
@@ -1786,10 +1822,10 @@
         <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1806,10 +1842,10 @@
         <v>90002</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2">
         <v>15003751</v>
@@ -1818,7 +1854,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H32">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -61,7 +61,9 @@
 401 随机一个队友获得随机属性加成 （valueList：1,2） 属性加成buff id 随机 weightList ： 权重
 402 所有队友获得一个随机属性加成
 500 队长获得随机一个属性加成
-600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给</t>
+600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
+601 获得人口
+</t>
         </r>
       </text>
     </comment>
@@ -94,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -247,6 +249,12 @@
   </si>
   <si>
     <t>200,500</t>
+  </si>
+  <si>
+    <t>增加 1 人口</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>获得技能 随机（升级测试）</t>
@@ -1252,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1802,6 +1810,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" customFormat="1" spans="1:10">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>60002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F28">
+        <v>601</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" t="s">
         <v>0</v>
@@ -1810,10 +1844,10 @@
         <v>90001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2">
         <v>15003751</v>
@@ -1822,10 +1856,10 @@
         <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1842,10 +1876,10 @@
         <v>90002</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2">
         <v>15003751</v>
@@ -1854,7 +1888,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1865,6 +1899,9 @@
       <c r="J32">
         <v>0</v>
       </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -233,7 +233,7 @@
     <t>获得队友（测试上限）</t>
   </si>
   <si>
-    <t>1200101,1200102,1000210</t>
+    <t>1000201,1000202,1000210</t>
   </si>
   <si>
     <t>随机一个队友获得一项随机属性强化</t>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
     <t>获得一个队友</t>
   </si>
   <si>
-    <t>1200021</t>
+    <t>1300102</t>
   </si>
   <si>
     <t>随机队友获得属性强化</t>
@@ -1262,8 +1262,8 @@
   <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="30240" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -58,7 +45,7 @@
 200 升级武器 （valueList：1,2）表示 升1级和 升2级 中随机 weightList ： 权重
 300 获得道具装备 （valueList：1,2） 表示 1 2 级中随机 weightList ： 权重
 400 获得队友 （valueList：1,2） 队友实体 id 组随机 weightList ： 权重
-401 随机一个队友获得随机属性加成 （valueList：1,2） 属性加成buff id 随机 weightList ： 权重
+401 随机一个队友获得随机属性加成 （valueList：1,2） 属性加成id 随机 weightList ： 权重
 402 所有队友获得一个随机属性加成
 500 队长获得随机一个属性加成
 600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
@@ -275,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -435,12 +422,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1262,11 +1249,11 @@
   <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
@@ -1689,7 +1676,6 @@
       <c r="G19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H19"/>
       <c r="I19">
         <v>1</v>
       </c>
@@ -1920,7 +1906,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1937,7 +1923,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14540"/>
+    <workbookView windowWidth="15735" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -208,7 +221,7 @@
     <t>获得一个队友</t>
   </si>
   <si>
-    <t>1300102</t>
+    <t>1000004</t>
   </si>
   <si>
     <t>随机队友获得属性强化</t>
@@ -262,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -422,12 +435,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1249,11 +1262,11 @@
   <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
@@ -1906,7 +1919,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1923,7 +1936,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10890"/>
+    <workbookView windowWidth="16530" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,17 @@
 102 随机一个队长技能增加技能经验
 200 升级武器 （valueList：1,2）表示 升1级和 升2级 中随机 weightList ： 权重
 300 获得道具装备 （valueList：1,2） 表示 1 2 级中随机 weightList ： 权重
+301 随机复制一个装备
 400 获得队友 （valueList：1,2） 队友实体 id 组随机 weightList ： 权重
 401 随机一个队友获得随机属性加成 （valueList：1,2） 属性加成id 随机 weightList ： 权重
 402 所有队友获得一个随机属性加成
+403 随机给一个英雄增加英雄经验
+404 全部英雄增加英雄经验
 500 队长获得随机一个属性加成
 600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
 601 获得人口
-</t>
+602 提升战银获得效率
+700 随机获得一个关卡效果</t>
         </r>
       </text>
     </comment>
@@ -96,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -158,13 +162,61 @@
     <t>参数值列表</t>
   </si>
   <si>
-    <t>权重</t>
+    <t>奖励中数值的权重</t>
   </si>
   <si>
     <t>获得数目</t>
   </si>
   <si>
     <t>确定实际奖励时机</t>
+  </si>
+  <si>
+    <t>奖励大类型分类（左边到倒数第六位） + 业务编号（倒数第 5 位 到 倒数第 3 位 ）+等级（最后两位）</t>
+  </si>
+  <si>
+    <t>通用 自己获得一个随机技能</t>
+  </si>
+  <si>
+    <t>通用 给自己一个小招随机技能经验</t>
+  </si>
+  <si>
+    <t>通用 随机一个队长技能增加经验</t>
+  </si>
+  <si>
+    <t>通用 获得一个装备</t>
+  </si>
+  <si>
+    <t>通用 随即复制一个装备</t>
+  </si>
+  <si>
+    <t>通用 随机给英雄</t>
+  </si>
+  <si>
+    <t>通用 随机一个队友获得一个随机属性</t>
+  </si>
+  <si>
+    <t>通用 所有队友获得随机属性</t>
+  </si>
+  <si>
+    <t>通用 随机给一个英雄经验</t>
+  </si>
+  <si>
+    <t>通用 给全部英雄经验</t>
+  </si>
+  <si>
+    <t>通用 自己获得随机属性</t>
+  </si>
+  <si>
+    <t>通用 获得随机战银</t>
+  </si>
+  <si>
+    <t>通用 获得人口</t>
+  </si>
+  <si>
+    <t>通用 提升战银获得效率</t>
+  </si>
+  <si>
+    <t>通用 随机获得一个关卡效果</t>
   </si>
   <si>
     <t>获得技能 随机</t>
@@ -1260,15 +1312,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8010" ySplit="2715" topLeftCell="F10" activePane="bottomLeft"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
     <col min="4" max="5" width="30.75" customWidth="1"/>
     <col min="6" max="6" width="25.375" customWidth="1"/>
@@ -1374,108 +1430,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:5">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F5">
-        <v>101</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>10002</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F6">
-        <v>102</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>10010</v>
+        <v>100101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>15003751</v>
@@ -1483,12 +1467,6 @@
       <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
       <c r="I7">
         <v>1</v>
       </c>
@@ -1496,143 +1474,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>20000</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2">
-        <v>15003752</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>100201</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F8">
+        <v>101</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>100301</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F9">
+        <v>102</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="3:5">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>300101</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>30000</v>
+        <v>300201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="F13">
-        <v>300</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="3:6">
+    </row>
+    <row r="15" spans="3:5">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="3:7">
+    </row>
+    <row r="16" spans="3:5">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>40000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
+        <v>400101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E17" s="2">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="F17">
         <v>400</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1640,31 +1634,25 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>40001</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
+        <v>400201</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E18" s="2">
-        <v>15003753</v>
+        <v>15003751</v>
       </c>
       <c r="F18">
         <v>401</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1672,235 +1660,739 @@
         <v>0</v>
       </c>
       <c r="B19">
+        <v>400301</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F19">
+        <v>402</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>400401</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F20">
+        <v>403</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>400501</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F21">
+        <v>404</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>500101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F24">
+        <v>501</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>600101</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F28">
+        <v>600</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>600201</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F29">
+        <v>601</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>600301</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F30">
+        <v>602</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:10">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>700101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F33">
+        <v>700</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37">
+        <v>10000</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38">
+        <v>10001</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F38">
+        <v>101</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39">
+        <v>10002</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F39">
+        <v>102</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40">
+        <v>10010</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <v>20000</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2">
+        <v>15003752</v>
+      </c>
+      <c r="F43">
+        <v>200</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46">
+        <v>30000</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F46">
+        <v>300</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50">
+        <v>40000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F50">
+        <v>400</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51">
+        <v>40001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="2">
+        <v>15003753</v>
+      </c>
+      <c r="F51">
+        <v>401</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52">
         <v>40002</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="2">
         <v>15003753</v>
       </c>
-      <c r="F19">
+      <c r="F52">
         <v>400</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+      <c r="G52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54">
         <v>40010</v>
       </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="2">
         <v>15003753</v>
       </c>
-      <c r="F21">
+      <c r="F54">
         <v>401</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:9">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+      <c r="G54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="2:9">
+      <c r="B55">
         <v>40011</v>
       </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="2">
         <v>15003753</v>
       </c>
-      <c r="F22">
+      <c r="F55">
         <v>402</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22">
+      <c r="G55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55">
         <v>100</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="2:9">
+      <c r="B58">
         <v>50000</v>
       </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
         <v>15003753</v>
       </c>
-      <c r="F25">
+      <c r="F58">
         <v>500</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25">
+      <c r="G58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58">
         <v>100</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60">
         <v>60001</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="2">
         <v>15003753</v>
       </c>
-      <c r="F27">
+      <c r="F60">
         <v>600</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
+      <c r="G60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="2:10">
+      <c r="B61">
         <v>60002</v>
       </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="2">
         <v>15003753</v>
       </c>
-      <c r="F28">
+      <c r="F61">
         <v>601</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
+      <c r="G61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="2:10">
+      <c r="B64">
         <v>90001</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
         <v>15003751</v>
       </c>
-      <c r="F31">
+      <c r="F64">
         <v>100</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
+      <c r="G64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="2:10">
+      <c r="B65">
         <v>90002</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="C65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="2">
         <v>15003751</v>
       </c>
-      <c r="F32">
+      <c r="F65">
         <v>100</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="2"/>
+      <c r="G65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -177,7 +177,19 @@
     <t>通用 自己获得一个随机技能</t>
   </si>
   <si>
+    <t>2801101,2801201,2801301,2801401,2801501,2801701,2801801,2801901,2802001,2802101</t>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
     <t>通用 给自己一个小招随机技能经验</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>100,60,30,20,10</t>
   </si>
   <si>
     <t>通用 随机一个队长技能增加经验</t>
@@ -948,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +974,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1315,11 +1330,11 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8010" ySplit="2715" topLeftCell="F10" activePane="bottomLeft"/>
+      <pane xSplit="7380" ySplit="2715" topLeftCell="G3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1448,7 +1463,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" ht="40.5" spans="1:10">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1467,6 +1482,12 @@
       <c r="F7">
         <v>100</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
@@ -1482,10 +1503,10 @@
         <v>100201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>15003751</v>
@@ -1493,6 +1514,12 @@
       <c r="F8">
         <v>101</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
       <c r="I8">
         <v>1</v>
       </c>
@@ -1508,10 +1535,10 @@
         <v>100301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>15003751</v>
@@ -1544,10 +1571,10 @@
         <v>300101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2">
         <v>15003751</v>
@@ -1570,10 +1597,10 @@
         <v>300201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2">
         <v>15003751</v>
@@ -1611,10 +1638,10 @@
         <v>400101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2">
         <v>15003751</v>
@@ -1637,10 +1664,10 @@
         <v>400201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2">
         <v>15003751</v>
@@ -1663,10 +1690,10 @@
         <v>400301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2">
         <v>15003751</v>
@@ -1689,10 +1716,10 @@
         <v>400401</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2">
         <v>15003751</v>
@@ -1715,10 +1742,10 @@
         <v>400501</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2">
         <v>15003751</v>
@@ -1751,10 +1778,10 @@
         <v>500101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>15003751</v>
@@ -1792,10 +1819,10 @@
         <v>600101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2">
         <v>15003751</v>
@@ -1818,10 +1845,10 @@
         <v>600201</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2">
         <v>15003751</v>
@@ -1844,10 +1871,10 @@
         <v>600301</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2">
         <v>15003751</v>
@@ -1880,10 +1907,10 @@
         <v>700101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2">
         <v>15003751</v>
@@ -1919,10 +1946,10 @@
         <v>10000</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2">
         <v>15003751</v>
@@ -1931,10 +1958,10 @@
         <v>100</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1948,10 +1975,10 @@
         <v>10001</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2">
         <v>15003751</v>
@@ -1960,10 +1987,10 @@
         <v>101</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1977,10 +2004,10 @@
         <v>10002</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2">
         <v>15003751</v>
@@ -1989,10 +2016,10 @@
         <v>102</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -2000,10 +2027,10 @@
         <v>10010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2">
         <v>15003751</v>
@@ -2012,10 +2039,10 @@
         <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2039,10 +2066,10 @@
         <v>20000</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2">
         <v>15003752</v>
@@ -2051,10 +2078,10 @@
         <v>200</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2080,10 +2107,10 @@
         <v>30000</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2">
         <v>15003753</v>
@@ -2092,10 +2119,10 @@
         <v>300</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2122,7 +2149,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -2130,10 +2157,10 @@
         <v>40000</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E50" s="2">
         <v>15003753</v>
@@ -2142,10 +2169,10 @@
         <v>400</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2159,10 +2186,10 @@
         <v>40001</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2">
         <v>15003753</v>
@@ -2171,7 +2198,7 @@
         <v>401</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -2188,10 +2215,10 @@
         <v>40002</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E52" s="2">
         <v>15003753</v>
@@ -2200,7 +2227,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2214,10 +2241,10 @@
         <v>40010</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2">
         <v>15003753</v>
@@ -2226,10 +2253,10 @@
         <v>401</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2240,10 +2267,10 @@
         <v>40011</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E55" s="2">
         <v>15003753</v>
@@ -2252,7 +2279,7 @@
         <v>402</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -2266,10 +2293,10 @@
         <v>50000</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E58" s="2">
         <v>15003753</v>
@@ -2278,7 +2305,7 @@
         <v>500</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -2292,10 +2319,10 @@
         <v>60001</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E60" s="2">
         <v>15003753</v>
@@ -2304,7 +2331,7 @@
         <v>600</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2315,10 +2342,10 @@
         <v>60002</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E61" s="2">
         <v>15003753</v>
@@ -2327,7 +2354,7 @@
         <v>601</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2338,10 +2365,10 @@
         <v>90001</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2">
         <v>15003751</v>
@@ -2350,10 +2377,10 @@
         <v>100</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2367,10 +2394,10 @@
         <v>90002</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2">
         <v>15003751</v>
@@ -2379,7 +2406,7 @@
         <v>100</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H65">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -1330,11 +1330,11 @@
   <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="G3" activePane="bottomRight"/>
+      <pane xSplit="7380" ySplit="2715" topLeftCell="F3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1545,6 +1545,12 @@
       </c>
       <c r="F9">
         <v>102</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
       </c>
       <c r="I9">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16530" windowHeight="10890"/>
+    <workbookView windowWidth="16200" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 500 队长获得随机一个属性加成
 600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
 601 获得人口
-602 提升战银获得效率
+602 提升战银获得效率(千分比)（valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
 700 随机获得一个关卡效果</t>
         </r>
       </text>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -198,7 +198,16 @@
     <t>通用 获得一个装备</t>
   </si>
   <si>
-    <t>通用 随即复制一个装备</t>
+    <t>100001,100002,100003,100004,100005,100006,100007,100008,100009,100010,100011,100012,100013,100014</t>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>通用 复制装备</t>
+  </si>
+  <si>
+    <t>通用 随机复制一个装备（自己和队友和仓库）放到仓库中</t>
   </si>
   <si>
     <t>通用 随机给英雄</t>
@@ -222,12 +231,21 @@
     <t>通用 获得随机战银</t>
   </si>
   <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>通用 获得人口</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>通用 提升战银获得效率</t>
   </si>
   <si>
+    <t>100,150</t>
+  </si>
+  <si>
     <t>通用 随机获得一个关卡效果</t>
   </si>
   <si>
@@ -316,9 +334,6 @@
   </si>
   <si>
     <t>增加 1 人口</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>获得技能 随机（升级测试）</t>
@@ -960,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,6 +989,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1329,12 +1347,12 @@
   <sheetPr/>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="F3" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="7380" ySplit="2715" topLeftCell="F14" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1569,7 +1587,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" ht="54" spans="1:10">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1587,6 +1605,12 @@
       </c>
       <c r="F12">
         <v>300</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1603,16 +1627,16 @@
         <v>300201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>15003751</v>
       </c>
       <c r="F13">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1644,10 +1668,10 @@
         <v>400101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2">
         <v>15003751</v>
@@ -1670,10 +1694,10 @@
         <v>400201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2">
         <v>15003751</v>
@@ -1696,10 +1720,10 @@
         <v>400301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2">
         <v>15003751</v>
@@ -1722,10 +1746,10 @@
         <v>400401</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>15003751</v>
@@ -1748,10 +1772,10 @@
         <v>400501</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2">
         <v>15003751</v>
@@ -1784,10 +1808,10 @@
         <v>500101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2">
         <v>15003751</v>
@@ -1825,16 +1849,19 @@
         <v>600101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2">
         <v>15003751</v>
       </c>
       <c r="F28">
         <v>600</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1851,16 +1878,19 @@
         <v>600201</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2">
         <v>15003751</v>
       </c>
       <c r="F29">
         <v>601</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1877,16 +1907,19 @@
         <v>600301</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2">
         <v>15003751</v>
       </c>
       <c r="F30">
         <v>602</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1913,10 +1946,10 @@
         <v>700101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2">
         <v>15003751</v>
@@ -1952,10 +1985,10 @@
         <v>10000</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2">
         <v>15003751</v>
@@ -1964,10 +1997,10 @@
         <v>100</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1981,10 +2014,10 @@
         <v>10001</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2">
         <v>15003751</v>
@@ -1993,10 +2026,10 @@
         <v>101</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2010,10 +2043,10 @@
         <v>10002</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2">
         <v>15003751</v>
@@ -2022,10 +2055,10 @@
         <v>102</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -2033,10 +2066,10 @@
         <v>10010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2">
         <v>15003751</v>
@@ -2045,10 +2078,10 @@
         <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2072,10 +2105,10 @@
         <v>20000</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E43" s="2">
         <v>15003752</v>
@@ -2084,10 +2117,10 @@
         <v>200</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2113,10 +2146,10 @@
         <v>30000</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2">
         <v>15003753</v>
@@ -2125,10 +2158,10 @@
         <v>300</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2155,7 +2188,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -2163,10 +2196,10 @@
         <v>40000</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2">
         <v>15003753</v>
@@ -2175,10 +2208,10 @@
         <v>400</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H50" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2192,10 +2225,10 @@
         <v>40001</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E51" s="2">
         <v>15003753</v>
@@ -2204,7 +2237,7 @@
         <v>401</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -2221,10 +2254,10 @@
         <v>40002</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E52" s="2">
         <v>15003753</v>
@@ -2233,7 +2266,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2247,10 +2280,10 @@
         <v>40010</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2">
         <v>15003753</v>
@@ -2259,10 +2292,10 @@
         <v>401</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2273,10 +2306,10 @@
         <v>40011</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2">
         <v>15003753</v>
@@ -2285,7 +2318,7 @@
         <v>402</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -2299,10 +2332,10 @@
         <v>50000</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2">
         <v>15003753</v>
@@ -2311,7 +2344,7 @@
         <v>500</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -2325,10 +2358,10 @@
         <v>60001</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2">
         <v>15003753</v>
@@ -2337,7 +2370,7 @@
         <v>600</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2348,10 +2381,10 @@
         <v>60002</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2">
         <v>15003753</v>
@@ -2360,7 +2393,7 @@
         <v>601</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2371,10 +2404,10 @@
         <v>90001</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2">
         <v>15003751</v>
@@ -2383,10 +2416,10 @@
         <v>100</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2400,10 +2433,10 @@
         <v>90002</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2">
         <v>15003751</v>
@@ -2412,7 +2445,7 @@
         <v>100</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H65">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="10890"/>
+    <workbookView windowWidth="17280" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -213,13 +213,31 @@
     <t>通用 随机给英雄</t>
   </si>
   <si>
+    <t>1000003,1000004,1000005,1000006</t>
+  </si>
+  <si>
+    <t>10,10,10,10</t>
+  </si>
+  <si>
     <t>通用 随机一个队友获得一个随机属性</t>
   </si>
   <si>
+    <t>4000001,4000002,4000003,4000004,4000005,4000006,4000007,4000008,4000009,4000010,4000011,4000012,4000015</t>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
     <t>通用 所有队友获得随机属性</t>
   </si>
   <si>
+    <t>通用 随机给一个英雄星级经验</t>
+  </si>
+  <si>
     <t>通用 随机给一个英雄经验</t>
+  </si>
+  <si>
+    <t>通用 给全部英雄星级经验</t>
   </si>
   <si>
     <t>通用 给全部英雄经验</t>
@@ -1347,12 +1365,12 @@
   <sheetPr/>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="F14" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7380" ySplit="2715" topLeftCell="F12" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1606,7 +1624,7 @@
       <c r="F12">
         <v>300</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H12" t="s">
@@ -1679,6 +1697,12 @@
       <c r="F17">
         <v>400</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
       <c r="I17">
         <v>1</v>
       </c>
@@ -1686,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" ht="54" spans="1:10">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1694,10 +1718,10 @@
         <v>400201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2">
         <v>15003751</v>
@@ -1705,6 +1729,12 @@
       <c r="F18">
         <v>401</v>
       </c>
+      <c r="G18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
       <c r="I18">
         <v>1</v>
       </c>
@@ -1712,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" ht="54" spans="1:10">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1720,16 +1750,22 @@
         <v>400301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2">
         <v>15003751</v>
       </c>
       <c r="F19">
         <v>402</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1746,16 +1782,22 @@
         <v>400401</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2">
         <v>15003751</v>
       </c>
       <c r="F20">
         <v>403</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1772,16 +1814,22 @@
         <v>400501</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
         <v>15003751</v>
       </c>
       <c r="F21">
         <v>404</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1808,10 +1856,10 @@
         <v>500101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2">
         <v>15003751</v>
@@ -1849,10 +1897,10 @@
         <v>600101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2">
         <v>15003751</v>
@@ -1861,7 +1909,7 @@
         <v>600</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1878,10 +1926,10 @@
         <v>600201</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2">
         <v>15003751</v>
@@ -1890,7 +1938,7 @@
         <v>601</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1907,10 +1955,10 @@
         <v>600301</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2">
         <v>15003751</v>
@@ -1919,7 +1967,7 @@
         <v>602</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1946,10 +1994,10 @@
         <v>700101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2">
         <v>15003751</v>
@@ -1985,10 +2033,10 @@
         <v>10000</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2">
         <v>15003751</v>
@@ -1997,10 +2045,10 @@
         <v>100</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2014,10 +2062,10 @@
         <v>10001</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2">
         <v>15003751</v>
@@ -2026,10 +2074,10 @@
         <v>101</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2043,10 +2091,10 @@
         <v>10002</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2">
         <v>15003751</v>
@@ -2055,10 +2103,10 @@
         <v>102</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -2066,10 +2114,10 @@
         <v>10010</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2">
         <v>15003751</v>
@@ -2078,10 +2126,10 @@
         <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2105,10 +2153,10 @@
         <v>20000</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E43" s="2">
         <v>15003752</v>
@@ -2117,10 +2165,10 @@
         <v>200</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2146,10 +2194,10 @@
         <v>30000</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2">
         <v>15003753</v>
@@ -2158,10 +2206,10 @@
         <v>300</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2188,7 +2236,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -2196,10 +2244,10 @@
         <v>40000</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2">
         <v>15003753</v>
@@ -2208,10 +2256,10 @@
         <v>400</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2225,10 +2273,10 @@
         <v>40001</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2">
         <v>15003753</v>
@@ -2237,7 +2285,7 @@
         <v>401</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -2254,10 +2302,10 @@
         <v>40002</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2">
         <v>15003753</v>
@@ -2266,7 +2314,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2280,10 +2328,10 @@
         <v>40010</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2">
         <v>15003753</v>
@@ -2292,10 +2340,10 @@
         <v>401</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2306,10 +2354,10 @@
         <v>40011</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2">
         <v>15003753</v>
@@ -2318,7 +2366,7 @@
         <v>402</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -2332,10 +2380,10 @@
         <v>50000</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2">
         <v>15003753</v>
@@ -2344,7 +2392,7 @@
         <v>500</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -2358,10 +2406,10 @@
         <v>60001</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2">
         <v>15003753</v>
@@ -2370,7 +2418,7 @@
         <v>600</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2381,10 +2429,10 @@
         <v>60002</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2">
         <v>15003753</v>
@@ -2393,7 +2441,7 @@
         <v>601</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2404,10 +2452,10 @@
         <v>90001</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2">
         <v>15003751</v>
@@ -2416,10 +2464,10 @@
         <v>100</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2433,10 +2481,10 @@
         <v>90002</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2">
         <v>15003751</v>
@@ -2445,7 +2493,7 @@
         <v>100</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H65">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="10890"/>
+    <workbookView windowWidth="16455" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,30 @@
   </authors>
   <commentList>
     <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 直接获得
+1 准备阶段到来时
+2 战斗阶段到来时</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,6 +113,29 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+如果不是立即获得的场合 ，那么 0 就为 无上限次数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 0 选择奖励之后才确定（还没有随机，可能前端只显示类型，选择之后才给奖励）
 1 选择之前就确定奖励了（随机计算完毕）
 </t>
@@ -100,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -117,6 +164,9 @@
     <t>iconResId</t>
   </si>
   <si>
+    <t>gainTimingType</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -126,6 +176,9 @@
     <t>weightList</t>
   </si>
   <si>
+    <t>maxGainTimesType</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
@@ -156,6 +209,9 @@
     <t>奖励图标</t>
   </si>
   <si>
+    <t>获得时机类型</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -165,6 +221,9 @@
     <t>奖励中数值的权重</t>
   </si>
   <si>
+    <t>最大获得次数</t>
+  </si>
+  <si>
     <t>获得数目</t>
   </si>
   <si>
@@ -244,6 +303,12 @@
   </si>
   <si>
     <t>通用 自己获得随机属性</t>
+  </si>
+  <si>
+    <t>通用 每次准备阶段 自己获得 50% 攻击力属性</t>
+  </si>
+  <si>
+    <t>4000016</t>
   </si>
   <si>
     <t>通用 获得随机战银</t>
@@ -543,12 +608,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -869,7 +940,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,16 +964,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -911,90 +982,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1012,8 +1086,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1363,14 +1440,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="F12" activePane="bottomRight"/>
+      <pane xSplit="7380" ySplit="2715" topLeftCell="E17" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,18 +1455,20 @@
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="37.25" customWidth="1"/>
     <col min="4" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
-    <col min="7" max="7" width="33.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="33.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="30.75" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1404,10 +1483,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1416,1097 +1495,1271 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:12">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>100101</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
         <v>15003751</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3"/>
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>100201</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
         <v>15003751</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3"/>
+      <c r="G8">
         <v>101</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
         <v>100301</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3">
         <v>15003751</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3"/>
+      <c r="G9">
         <v>102</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" ht="54" spans="1:10">
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" ht="54" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
         <v>300101</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3">
         <v>15003751</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3"/>
+      <c r="G12">
         <v>300</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
         <v>300201</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3">
         <v>15003751</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3"/>
+      <c r="G13">
         <v>301</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J13" s="3"/>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
         <v>400101</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
         <v>15003751</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3"/>
+      <c r="G17">
         <v>400</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="54" spans="1:10">
+      <c r="H17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
         <v>400201</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3">
         <v>15003751</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3"/>
+      <c r="G18">
         <v>401</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="54" spans="1:10">
+      <c r="H18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:12">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
         <v>400301</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3">
         <v>15003751</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3"/>
+      <c r="G19">
         <v>402</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="H19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
         <v>400401</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="3">
         <v>15003751</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3"/>
+      <c r="G20">
         <v>403</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="H20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21">
         <v>400501</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3">
         <v>15003751</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3"/>
+      <c r="G21">
         <v>404</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="H21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" ht="54" spans="1:12">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
         <v>500101</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3">
         <v>15003751</v>
       </c>
-      <c r="F24">
-        <v>501</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24">
+        <v>500</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:12">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B28">
-        <v>600101</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="B25">
+        <v>500201</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="3">
         <v>15003751</v>
       </c>
-      <c r="F28">
-        <v>600</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>500</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
-        <v>600201</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="2">
+        <v>600101</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="3">
         <v>15003751</v>
       </c>
-      <c r="F29">
-        <v>601</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="F29" s="3"/>
+      <c r="G29">
+        <v>600</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30">
+        <v>600201</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30">
+        <v>601</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
         <v>600301</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="3">
         <v>15003751</v>
       </c>
-      <c r="F30">
+      <c r="F31" s="3"/>
+      <c r="G31">
         <v>602</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:10">
-      <c r="A33" t="s">
+      <c r="H31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:12">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="1">
         <v>700101</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="7">
         <v>15003751</v>
       </c>
-      <c r="F33">
+      <c r="F34" s="7"/>
+      <c r="G34" s="1">
         <v>700</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37">
+      <c r="H34" s="8"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38">
         <v>10000</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="C38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="3">
         <v>15003751</v>
       </c>
-      <c r="F37">
+      <c r="F38" s="3"/>
+      <c r="G38">
         <v>100</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
+      <c r="H38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
-      <c r="B38">
+    <row r="39" spans="2:12">
+      <c r="B39">
         <v>10001</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="C39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="3">
         <v>15003751</v>
       </c>
-      <c r="F38">
+      <c r="F39" s="3"/>
+      <c r="G39">
         <v>101</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
+      <c r="H39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39">
-        <v>10002</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F39">
-        <v>102</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
+        <v>10002</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40">
+        <v>102</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41">
         <v>10010</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="C41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="3">
         <v>15003751</v>
       </c>
-      <c r="F40">
+      <c r="F41" s="3"/>
+      <c r="G41">
         <v>100</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43">
+      <c r="H41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44">
         <v>20000</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="C44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="3">
         <v>15003752</v>
       </c>
-      <c r="F43">
+      <c r="F44" s="3"/>
+      <c r="G44">
         <v>200</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
+      <c r="H44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46">
+    <row r="45" spans="3:10">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47">
         <v>30000</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="C47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="3">
         <v>15003753</v>
       </c>
-      <c r="F46">
+      <c r="F47" s="3"/>
+      <c r="G47">
         <v>300</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
+      <c r="H47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50">
+    <row r="48" spans="3:10">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51">
         <v>40000</v>
       </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="3">
         <v>15003753</v>
       </c>
-      <c r="F50">
+      <c r="F51" s="3"/>
+      <c r="G51">
         <v>400</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
+      <c r="H51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51">
+    <row r="52" spans="2:12">
+      <c r="B52">
         <v>40001</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52">
+        <v>401</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53">
+        <v>40002</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53">
+        <v>400</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55">
+        <v>40010</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55">
+        <v>401</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s">
         <v>74</v>
       </c>
-      <c r="D51" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="J55" s="3"/>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="2:11">
+      <c r="B56">
+        <v>40011</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="3">
         <v>15003753</v>
       </c>
-      <c r="F51">
-        <v>401</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51">
+      <c r="F56" s="3"/>
+      <c r="G56">
+        <v>402</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56">
         <v>100</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
+      <c r="J56" s="3"/>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="2:11">
+      <c r="B59">
+        <v>50000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59">
+        <v>500</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61">
+        <v>60001</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61">
+        <v>600</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="2:12">
+      <c r="B62">
+        <v>60002</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62">
+        <v>601</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="2:12">
+      <c r="B65">
+        <v>90001</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
-      <c r="B52">
-        <v>40002</v>
-      </c>
-      <c r="C52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F52">
-        <v>400</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
+    <row r="66" customFormat="1" spans="2:12">
+      <c r="B66">
+        <v>90002</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54">
-        <v>40010</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F54">
-        <v>401</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="2:9">
-      <c r="B55">
-        <v>40011</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F55">
-        <v>402</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55">
-        <v>100</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="2:9">
-      <c r="B58">
-        <v>50000</v>
-      </c>
-      <c r="C58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F58">
-        <v>500</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58">
-        <v>100</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60">
-        <v>60001</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F60">
-        <v>600</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="2:10">
-      <c r="B61">
-        <v>60002</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F61">
-        <v>601</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="2:10">
-      <c r="B64">
-        <v>90001</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F64">
-        <v>100</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H64" t="s">
-        <v>86</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="2:10">
-      <c r="B65">
-        <v>90002</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F65">
-        <v>100</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="2"/>
+    <row r="68" spans="5:10">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="J68" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="11430"/>
+    <workbookView windowWidth="17430" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,11 +87,14 @@
 402 所有队友获得一个随机属性加成
 403 随机给一个英雄增加英雄经验
 404 全部英雄增加英雄经验
+405 随机一个英雄获得 buff
+406 所有英雄获得 buff
 500 队长获得随机一个属性加成
 600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
 601 获得人口
 602 提升战银获得效率(千分比)（valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
-700 随机获得一个关卡效果</t>
+700 随机获得一个关卡效果
+</t>
         </r>
       </text>
     </comment>
@@ -147,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -300,6 +303,15 @@
   </si>
   <si>
     <t>通用 给全部英雄经验</t>
+  </si>
+  <si>
+    <t>通用 随机一个英雄加一个减伤 buff 15秒</t>
+  </si>
+  <si>
+    <t>通用 所有英雄加一个增伤 buff 15秒</t>
+  </si>
+  <si>
+    <t>14850101</t>
   </si>
   <si>
     <t>通用 自己获得随机属性</t>
@@ -1440,10 +1452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="E17" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="7380" ySplit="2715" topLeftCell="E12" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1971,244 +1983,275 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>400601</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15003751</v>
+      </c>
       <c r="F22" s="3"/>
+      <c r="G22">
+        <v>405</v>
+      </c>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:12">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>400701</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>406</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" ht="54" spans="1:12">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>500101</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="3">
-        <v>15003751</v>
-      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24">
-        <v>500</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
+      <c r="H24" s="6"/>
       <c r="J24" s="3"/>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:12">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>500201</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="3">
-        <v>15003751</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>500</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="H25" s="6"/>
       <c r="J25" s="3"/>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="3:10">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
+      <c r="H26" s="6"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+    <row r="27" ht="54" spans="1:12">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>500101</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15003751</v>
+      </c>
       <c r="F27" s="3"/>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:12">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>500201</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>600101</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="3">
         <v>15003751</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29">
+      <c r="F32" s="3"/>
+      <c r="G32">
         <v>600</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
+      <c r="H32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B30">
+      <c r="B33">
         <v>600201</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="3">
         <v>15003751</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30">
+      <c r="F33" s="3"/>
+      <c r="G33">
         <v>601</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
+      <c r="H33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>600301</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="C34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="3">
         <v>15003751</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31">
+      <c r="F34" s="3"/>
+      <c r="G34">
         <v>602</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:12">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>700101</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="7">
-        <v>15003751</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="1">
-        <v>700</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="H34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>1</v>
       </c>
     </row>
@@ -2226,109 +2269,65 @@
       <c r="F36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="3:10">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38">
-        <v>10000</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="3">
+    <row r="37" s="1" customFormat="1" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>700101</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="7">
         <v>15003751</v>
       </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="1">
+        <v>700</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
       <c r="J38" s="3"/>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39">
-        <v>10001</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="3">
-        <v>15003751</v>
-      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39">
-        <v>101</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
       <c r="J39" s="3"/>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40">
-        <v>10002</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="3">
-        <v>15003751</v>
-      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40">
-        <v>102</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41">
-        <v>10010</v>
+        <v>10000</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E41" s="3">
         <v>15003751</v>
@@ -2338,36 +2337,78 @@
         <v>100</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42">
+        <v>10001</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15003751</v>
+      </c>
       <c r="F42" s="3"/>
+      <c r="G42">
+        <v>101</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
       <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="3:10">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <v>10002</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15003751</v>
+      </c>
       <c r="F43" s="3"/>
+      <c r="G43">
+        <v>102</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:12">
       <c r="B44">
-        <v>20000</v>
+        <v>10010</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>72</v>
@@ -2376,11 +2417,11 @@
         <v>72</v>
       </c>
       <c r="E44" s="3">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>73</v>
@@ -2393,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="3:10">
@@ -2401,7 +2442,6 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="3:10">
@@ -2409,12 +2449,11 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:12">
       <c r="B47">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>75</v>
@@ -2423,17 +2462,17 @@
         <v>75</v>
       </c>
       <c r="E47" s="3">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47">
@@ -2459,116 +2498,104 @@
       <c r="G49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="3:10">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+    <row r="50" spans="2:12">
+      <c r="B50">
+        <v>30000</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15003753</v>
+      </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="G50">
+        <v>300</v>
+      </c>
       <c r="H50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
         <v>77</v>
       </c>
       <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54">
         <v>40000</v>
       </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="3">
         <v>15003753</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51">
+      <c r="F54" s="3"/>
+      <c r="G54">
         <v>400</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
+      <c r="H54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:12">
-      <c r="B52">
+    <row r="55" spans="2:12">
+      <c r="B55">
         <v>40001</v>
       </c>
-      <c r="C52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="3">
-        <v>15003753</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52">
-        <v>401</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52">
-        <v>100</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53">
-        <v>40002</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="3">
-        <v>15003753</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53">
-        <v>400</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="C55" t="s">
         <v>83</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55">
-        <v>40010</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" s="3">
         <v>15003753</v>
@@ -2578,19 +2605,22 @@
         <v>401</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" customFormat="1" spans="2:11">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
       <c r="B56">
-        <v>40011</v>
+        <v>40002</v>
       </c>
       <c r="C56" t="s">
         <v>85</v>
@@ -2603,38 +2633,66 @@
       </c>
       <c r="F56" s="3"/>
       <c r="G56">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56">
         <v>1</v>
       </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58">
+        <v>40010</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58">
+        <v>401</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="1" spans="2:11">
       <c r="B59">
-        <v>50000</v>
+        <v>40011</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="3">
         <v>15003753</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59">
-        <v>500</v>
+        <v>402</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <v>100</v>
@@ -2644,34 +2702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:12">
-      <c r="B61">
-        <v>60001</v>
-      </c>
-      <c r="C61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="3">
-        <v>15003753</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61">
-        <v>600</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="L61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="2:12">
+    <row r="62" customFormat="1" spans="2:11">
       <c r="B62">
-        <v>60002</v>
+        <v>50000</v>
       </c>
       <c r="C62" t="s">
         <v>89</v>
@@ -2684,82 +2717,135 @@
       </c>
       <c r="F62" s="3"/>
       <c r="G62">
-        <v>601</v>
+        <v>500</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="L62">
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64">
+        <v>60001</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64">
+        <v>600</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="L64">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="2:12">
       <c r="B65">
-        <v>90001</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>90</v>
+        <v>60002</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" t="s">
+        <v>92</v>
       </c>
       <c r="E65" s="3">
-        <v>15003751</v>
+        <v>15003753</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65">
+        <v>601</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="2:12">
+      <c r="B68">
+        <v>90001</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68">
         <v>100</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
+      <c r="H68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="2:12">
-      <c r="B66">
+    <row r="69" customFormat="1" spans="2:12">
+      <c r="B69">
         <v>90002</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="C69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="3">
         <v>15003751</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66">
+      <c r="F69" s="3"/>
+      <c r="G69">
         <v>100</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3"/>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
+      <c r="H69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:10">
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="J68" s="3"/>
+    <row r="71" spans="5:10">
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="J71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -182,6 +182,9 @@
     <t>maxGainTimesType</t>
   </si>
   <si>
+    <t>applyToNewTeamMembers</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
     <t>最大获得次数</t>
   </si>
   <si>
+    <t>奖励效果是否对新生成的队友也生效（目前适用于全员加属性和buff）</t>
+  </si>
+  <si>
     <t>获得数目</t>
   </si>
   <si>
@@ -312,6 +318,12 @@
   </si>
   <si>
     <t>14850101</t>
+  </si>
+  <si>
+    <t>通用 所有队友获得生命属性（包含后来的新队友）</t>
+  </si>
+  <si>
+    <t>4000001</t>
   </si>
   <si>
     <t>通用 自己获得随机属性</t>
@@ -1452,14 +1464,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="E12" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7380" ySplit="2715" topLeftCell="J11" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1471,12 +1483,12 @@
     <col min="7" max="7" width="25.375" customWidth="1"/>
     <col min="8" max="8" width="33.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="10" width="30.75" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="27.375" customWidth="1"/>
+    <col min="10" max="11" width="30.75" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1513,108 +1525,120 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
         <v>25</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="3:10">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:12">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:13">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1622,10 +1646,10 @@
         <v>100101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
         <v>15003751</v>
@@ -1635,20 +1659,21 @@
         <v>100</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7">
-        <v>1</v>
-      </c>
+      <c r="K7" s="3"/>
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1656,10 +1681,10 @@
         <v>100201</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3">
         <v>15003751</v>
@@ -1669,20 +1694,21 @@
         <v>101</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8">
-        <v>1</v>
-      </c>
+      <c r="K8" s="3"/>
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1690,10 +1716,10 @@
         <v>100301</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3">
         <v>15003751</v>
@@ -1703,34 +1729,37 @@
         <v>102</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9">
-        <v>1</v>
-      </c>
+      <c r="K9" s="3"/>
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="3:11">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" ht="54" spans="1:12">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" ht="54" spans="1:13">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1738,10 +1767,10 @@
         <v>300101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>15003751</v>
@@ -1751,20 +1780,21 @@
         <v>300</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12">
-        <v>1</v>
-      </c>
+      <c r="K12" s="3"/>
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1772,10 +1802,10 @@
         <v>300201</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>15003751</v>
@@ -1785,35 +1815,39 @@
         <v>301</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13">
-        <v>1</v>
-      </c>
+      <c r="K13" s="3"/>
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="3:10">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="3:11">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="3:10">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="3:11">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1821,10 +1855,10 @@
         <v>400101</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>15003751</v>
@@ -1834,20 +1868,21 @@
         <v>400</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17">
-        <v>1</v>
-      </c>
+      <c r="K17" s="3"/>
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" ht="54" spans="1:12">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:13">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1855,10 +1890,10 @@
         <v>400201</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3">
         <v>15003751</v>
@@ -1868,20 +1903,21 @@
         <v>401</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18">
-        <v>1</v>
-      </c>
+      <c r="K18" s="3"/>
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" ht="54" spans="1:12">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:13">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1889,10 +1925,10 @@
         <v>400301</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="3">
         <v>15003751</v>
@@ -1902,20 +1938,21 @@
         <v>402</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19">
-        <v>1</v>
-      </c>
+      <c r="K19" s="3"/>
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1923,10 +1960,10 @@
         <v>400401</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3">
         <v>15003751</v>
@@ -1936,20 +1973,21 @@
         <v>403</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20">
-        <v>1</v>
-      </c>
+      <c r="K20" s="3"/>
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1957,10 +1995,10 @@
         <v>400501</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3">
         <v>15003751</v>
@@ -1970,20 +2008,21 @@
         <v>404</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21">
-        <v>1</v>
-      </c>
+      <c r="K21" s="3"/>
       <c r="L21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1991,10 +2030,10 @@
         <v>400601</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3">
         <v>15003751</v>
@@ -2004,14 +2043,15 @@
         <v>405</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22">
-        <v>1</v>
-      </c>
+      <c r="K22" s="3"/>
       <c r="L22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:12">
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2019,10 +2059,10 @@
         <v>400701</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3">
         <v>15003751</v>
@@ -2034,44 +2074,76 @@
         <v>406</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23">
-        <v>1</v>
-      </c>
+      <c r="K23" s="3"/>
       <c r="L23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>400801</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15003751</v>
+      </c>
       <c r="F24" s="3"/>
-      <c r="H24" s="6"/>
+      <c r="G24">
+        <v>402</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="3:10">
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="H25" s="6"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="3:10">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="3:11">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="H26" s="6"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" ht="54" spans="1:12">
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" ht="54" spans="1:13">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2079,10 +2151,10 @@
         <v>500101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3">
         <v>15003751</v>
@@ -2092,20 +2164,21 @@
         <v>500</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27">
-        <v>1</v>
-      </c>
+      <c r="K27" s="3"/>
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:12">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:13">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2113,10 +2186,10 @@
         <v>500201</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3">
         <v>15003751</v>
@@ -2128,41 +2201,45 @@
         <v>500</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28">
-        <v>1</v>
-      </c>
+      <c r="K28" s="3"/>
       <c r="L28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="3:10">
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="3:10">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="3:11">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="3:10">
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="3:11">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2170,10 +2247,10 @@
         <v>600101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E32" s="3">
         <v>15003751</v>
@@ -2183,17 +2260,18 @@
         <v>600</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32">
-        <v>1</v>
-      </c>
+      <c r="K32" s="3"/>
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2201,10 +2279,10 @@
         <v>600201</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E33" s="3">
         <v>15003751</v>
@@ -2214,17 +2292,18 @@
         <v>601</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="K33">
-        <v>1</v>
-      </c>
+      <c r="K33" s="3"/>
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2232,10 +2311,10 @@
         <v>600301</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E34" s="3">
         <v>15003751</v>
@@ -2245,31 +2324,34 @@
         <v>602</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34">
-        <v>1</v>
-      </c>
+      <c r="K34" s="3"/>
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="3:10">
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="3:10">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="3:11">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="J36" s="3"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:12">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2277,10 +2359,10 @@
         <v>700101</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E37" s="7">
         <v>15003751</v>
@@ -2291,43 +2373,47 @@
       </c>
       <c r="H37" s="8"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
+      <c r="K37" s="7"/>
       <c r="L37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="3:10">
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="3:10">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="3:11">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="3:10">
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="3:11">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41">
         <v>10000</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E41" s="3">
         <v>15003751</v>
@@ -2337,28 +2423,29 @@
         <v>100</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41">
-        <v>1</v>
-      </c>
+      <c r="K41" s="3"/>
       <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:13">
       <c r="B42">
         <v>10001</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E42" s="3">
         <v>15003751</v>
@@ -2368,28 +2455,29 @@
         <v>101</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J42" s="3"/>
-      <c r="K42">
-        <v>1</v>
-      </c>
+      <c r="K42" s="3"/>
       <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:11">
       <c r="B43">
         <v>10002</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E43" s="3">
         <v>15003751</v>
@@ -2399,22 +2487,23 @@
         <v>102</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:12">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44">
         <v>10010</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E44" s="3">
         <v>15003751</v>
@@ -2424,42 +2513,45 @@
         <v>100</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44">
-        <v>1</v>
-      </c>
+      <c r="K44" s="3"/>
       <c r="L44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="3:10">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="3:10">
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="3:11">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="2:12">
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47">
         <v>20000</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E47" s="3">
         <v>15003752</v>
@@ -2469,44 +2561,47 @@
         <v>200</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47">
-        <v>1</v>
-      </c>
+      <c r="K47" s="3"/>
       <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:10">
+    <row r="48" spans="3:11">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="3:10">
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="3:11">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="2:12">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50">
         <v>30000</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E50" s="3">
         <v>15003753</v>
@@ -2516,55 +2611,59 @@
         <v>300</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50">
-        <v>1</v>
-      </c>
+      <c r="K50" s="3"/>
       <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:10">
+    <row r="51" spans="3:11">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="3:10">
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="3:11">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="3:10">
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="3:11">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="2:12">
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54">
         <v>40000</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E54" s="3">
         <v>15003753</v>
@@ -2574,28 +2673,29 @@
         <v>400</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="K54">
-        <v>1</v>
-      </c>
+      <c r="K54" s="3"/>
       <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:13">
       <c r="B55">
         <v>40001</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E55" s="3">
         <v>15003753</v>
@@ -2605,28 +2705,29 @@
         <v>401</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
       <c r="J55" s="3"/>
-      <c r="K55">
-        <v>1</v>
-      </c>
+      <c r="K55" s="3"/>
       <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:13">
       <c r="B56">
         <v>40002</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E56" s="3">
         <v>15003753</v>
@@ -2636,25 +2737,26 @@
         <v>400</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J56" s="3"/>
-      <c r="K56">
-        <v>1</v>
-      </c>
+      <c r="K56" s="3"/>
       <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:12">
       <c r="B58">
         <v>40010</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E58" s="3">
         <v>15003753</v>
@@ -2664,25 +2766,26 @@
         <v>401</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J58" s="3"/>
-      <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="2:11">
+      <c r="K58" s="3"/>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="2:12">
       <c r="B59">
         <v>40011</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E59" s="3">
         <v>15003753</v>
@@ -2692,25 +2795,26 @@
         <v>402</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59" s="3"/>
-      <c r="K59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="2:11">
+      <c r="K59" s="3"/>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="2:12">
       <c r="B62">
         <v>50000</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E62" s="3">
         <v>15003753</v>
@@ -2720,25 +2824,26 @@
         <v>500</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I62">
         <v>100</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
+      <c r="K62" s="3"/>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64">
         <v>60001</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E64" s="3">
         <v>15003753</v>
@@ -2748,22 +2853,23 @@
         <v>600</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J64" s="3"/>
-      <c r="L64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="2:12">
+      <c r="K64" s="3"/>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="2:13">
       <c r="B65">
         <v>60002</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E65" s="3">
         <v>15003753</v>
@@ -2773,22 +2879,23 @@
         <v>601</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J65" s="3"/>
-      <c r="L65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="2:12">
+      <c r="K65" s="3"/>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="2:13">
       <c r="B68">
         <v>90001</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E68" s="3">
         <v>15003751</v>
@@ -2798,28 +2905,29 @@
         <v>100</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J68" s="3"/>
-      <c r="K68">
-        <v>1</v>
-      </c>
+      <c r="K68" s="3"/>
       <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="2:12">
+    <row r="69" customFormat="1" spans="2:13">
       <c r="B69">
         <v>90002</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E69" s="3">
         <v>15003751</v>
@@ -2829,23 +2937,25 @@
         <v>100</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" s="3"/>
-      <c r="K69">
-        <v>1</v>
-      </c>
+      <c r="K69" s="3"/>
       <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:10">
+    <row r="71" spans="5:11">
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -90,6 +90,7 @@
 405 随机一个英雄获得 buff
 406 所有英雄获得 buff
 500 队长获得随机一个属性加成
+501 队长加一个 buff
 600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
 601 获得人口
 602 提升战银获得效率(千分比)（valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>#</t>
   </si>
@@ -333,6 +334,12 @@
   </si>
   <si>
     <t>4000016</t>
+  </si>
+  <si>
+    <t>通用 自己获得 50% 攻击力属性的buff</t>
+  </si>
+  <si>
+    <t>14850201</t>
   </si>
   <si>
     <t>通用 获得随机战银</t>
@@ -1466,12 +1473,12 @@
   <sheetPr/>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="J11" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="7380" ySplit="2715" topLeftCell="G19" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2215,13 +2222,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+    <row r="29" customFormat="1" spans="1:13">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>500301</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="3">
+        <v>15003751</v>
+      </c>
       <c r="F29" s="3"/>
+      <c r="G29">
+        <v>501</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="3"/>
@@ -2247,10 +2281,10 @@
         <v>600101</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="3">
         <v>15003751</v>
@@ -2260,7 +2294,7 @@
         <v>600</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2279,10 +2313,10 @@
         <v>600201</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3">
         <v>15003751</v>
@@ -2292,7 +2326,7 @@
         <v>601</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2311,10 +2345,10 @@
         <v>600301</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3">
         <v>15003751</v>
@@ -2324,7 +2358,7 @@
         <v>602</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2359,10 +2393,10 @@
         <v>700101</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="7">
         <v>15003751</v>
@@ -2410,10 +2444,10 @@
         <v>10000</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E41" s="3">
         <v>15003751</v>
@@ -2423,10 +2457,10 @@
         <v>100</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2442,10 +2476,10 @@
         <v>10001</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E42" s="3">
         <v>15003751</v>
@@ -2455,10 +2489,10 @@
         <v>101</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2474,10 +2508,10 @@
         <v>10002</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="3">
         <v>15003751</v>
@@ -2487,10 +2521,10 @@
         <v>102</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2500,10 +2534,10 @@
         <v>10010</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" s="3">
         <v>15003751</v>
@@ -2513,10 +2547,10 @@
         <v>100</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2548,10 +2582,10 @@
         <v>20000</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3">
         <v>15003752</v>
@@ -2561,10 +2595,10 @@
         <v>200</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -2598,10 +2632,10 @@
         <v>30000</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="3">
         <v>15003753</v>
@@ -2611,10 +2645,10 @@
         <v>300</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" t="s">
         <v>83</v>
-      </c>
-      <c r="I50" t="s">
-        <v>81</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -2650,7 +2684,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -2660,10 +2694,10 @@
         <v>40000</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="3">
         <v>15003753</v>
@@ -2673,10 +2707,10 @@
         <v>400</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -2692,10 +2726,10 @@
         <v>40001</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="3">
         <v>15003753</v>
@@ -2705,7 +2739,7 @@
         <v>401</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I55">
         <v>100</v>
@@ -2724,10 +2758,10 @@
         <v>40002</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="3">
         <v>15003753</v>
@@ -2737,7 +2771,7 @@
         <v>400</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -2753,10 +2787,10 @@
         <v>40010</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="3">
         <v>15003753</v>
@@ -2766,10 +2800,10 @@
         <v>401</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -2782,10 +2816,10 @@
         <v>40011</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="3">
         <v>15003753</v>
@@ -2795,7 +2829,7 @@
         <v>402</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I59">
         <v>100</v>
@@ -2811,10 +2845,10 @@
         <v>50000</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="3">
         <v>15003753</v>
@@ -2824,7 +2858,7 @@
         <v>500</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I62">
         <v>100</v>
@@ -2840,10 +2874,10 @@
         <v>60001</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="3">
         <v>15003753</v>
@@ -2853,7 +2887,7 @@
         <v>600</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -2866,10 +2900,10 @@
         <v>60002</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="3">
         <v>15003753</v>
@@ -2879,7 +2913,7 @@
         <v>601</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -2892,10 +2926,10 @@
         <v>90001</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="3">
         <v>15003751</v>
@@ -2905,10 +2939,10 @@
         <v>100</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -2924,10 +2958,10 @@
         <v>90002</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="3">
         <v>15003751</v>
@@ -2937,7 +2971,7 @@
         <v>100</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I69">
         <v>1</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -1254,11 +1254,11 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7140" ySplit="2715" topLeftCell="E25" activePane="bottomRight"/>
+      <pane xSplit="7140" ySplit="2715" topLeftCell="D25" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -1254,18 +1254,18 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7140" ySplit="2715" topLeftCell="D25" activePane="bottomRight"/>
+      <pane xSplit="7140" ySplit="2715" topLeftCell="E25" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
     <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19755" windowHeight="11430"/>
+    <workbookView windowWidth="18120" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>通用 提升战银获得效率</t>
+  </si>
+  <si>
+    <t>通用 怪物增加属性 1 回合（攻击增强）</t>
+  </si>
+  <si>
+    <t>700101</t>
   </si>
   <si>
     <t>通用 自己获得50%攻击力的buff ， 获得随机战银</t>
@@ -1254,11 +1260,11 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7140" ySplit="2715" topLeftCell="E25" activePane="bottomRight"/>
+      <pane xSplit="7140" ySplit="2715" topLeftCell="A19" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1915,10 +1921,25 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>70101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2">
+        <v>15003751</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="2"/>
@@ -1938,16 +1959,16 @@
         <v>1000101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2">
         <v>15003751</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1981,16 +2002,16 @@
         <v>10000</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2">
         <v>15003751</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2004,16 +2025,16 @@
         <v>10001</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2">
         <v>15003751</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2027,10 +2048,10 @@
         <v>10002</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E46" s="2">
         <v>15003751</v>
@@ -2044,10 +2065,10 @@
         <v>10010</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2">
         <v>15003751</v>
@@ -2077,10 +2098,10 @@
         <v>20000</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E50" s="2">
         <v>15003752</v>
@@ -2110,10 +2131,10 @@
         <v>30000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E53" s="2">
         <v>15003753</v>
@@ -2148,10 +2169,10 @@
         <v>40000</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E57" s="2">
         <v>15003753</v>
@@ -2171,10 +2192,10 @@
         <v>40001</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E58" s="2">
         <v>15003753</v>
@@ -2194,10 +2215,10 @@
         <v>40002</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E59" s="2">
         <v>15003753</v>
@@ -2217,10 +2238,10 @@
         <v>40010</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E61" s="2">
         <v>15003753</v>
@@ -2237,10 +2258,10 @@
         <v>40011</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E62" s="2">
         <v>15003753</v>
@@ -2257,10 +2278,10 @@
         <v>50000</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E65" s="2">
         <v>15003753</v>
@@ -2277,10 +2298,10 @@
         <v>60001</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E67" s="2">
         <v>15003753</v>
@@ -2297,10 +2318,10 @@
         <v>60002</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E68" s="2">
         <v>15003753</v>
@@ -2317,10 +2338,10 @@
         <v>90001</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E71" s="2">
         <v>15003751</v>
@@ -2340,10 +2361,10 @@
         <v>90002</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E72" s="2">
         <v>15003751</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18120" windowHeight="11430"/>
+    <workbookView windowWidth="22665" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -89,6 +89,9 @@
     <t>makeSureRewardOccasion</t>
   </si>
   <si>
+    <t>maxAcquireCount</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>确定实际奖励时机</t>
+  </si>
+  <si>
+    <t>奖励产出上限(0表示无限制)</t>
   </si>
   <si>
     <t>奖励大类型分类（左边到倒数第六位） + 业务编号（倒数第 5 位 到 倒数第 3 位 ）+等级（最后两位）</t>
@@ -1257,28 +1263,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7140" ySplit="2715" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane xSplit="7140" ySplit="2715" topLeftCell="D22" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="26.375" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
     <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,57 +1310,66 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="3:6">
@@ -1364,7 +1380,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1385,10 +1401,10 @@
         <v>10101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>15003751</v>
@@ -1411,10 +1427,10 @@
         <v>10201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>15003751</v>
@@ -1437,10 +1453,10 @@
         <v>10301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2">
         <v>15003751</v>
@@ -1473,10 +1489,10 @@
         <v>30101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>15003751</v>
@@ -1499,10 +1515,10 @@
         <v>30201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2">
         <v>15003751</v>
@@ -1540,10 +1556,10 @@
         <v>40101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2">
         <v>15003751</v>
@@ -1566,10 +1582,10 @@
         <v>40201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <v>15003751</v>
@@ -1592,10 +1608,10 @@
         <v>40301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
         <v>15003751</v>
@@ -1618,10 +1634,10 @@
         <v>40401</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2">
         <v>15003751</v>
@@ -1644,10 +1660,10 @@
         <v>40501</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2">
         <v>15003751</v>
@@ -1670,10 +1686,10 @@
         <v>40601</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2">
         <v>15003751</v>
@@ -1696,10 +1712,10 @@
         <v>40701</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2">
         <v>15003751</v>
@@ -1722,10 +1738,10 @@
         <v>40801</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2">
         <v>15003751</v>
@@ -1758,10 +1774,10 @@
         <v>50101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2">
         <v>15003751</v>
@@ -1784,10 +1800,10 @@
         <v>50201</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2">
         <v>15003751</v>
@@ -1810,10 +1826,10 @@
         <v>50301</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2">
         <v>15003751</v>
@@ -1846,10 +1862,10 @@
         <v>60101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2">
         <v>15003751</v>
@@ -1872,10 +1888,10 @@
         <v>60201</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2">
         <v>15003751</v>
@@ -1898,10 +1914,10 @@
         <v>60301</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2">
         <v>15003751</v>
@@ -1929,16 +1945,16 @@
         <v>70101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2">
         <v>15003751</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -1951,7 +1967,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1959,21 +1975,24 @@
         <v>1000101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2">
         <v>15003751</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
     </row>
@@ -2002,16 +2021,16 @@
         <v>10000</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2">
         <v>15003751</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2025,16 +2044,16 @@
         <v>10001</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E45" s="2">
         <v>15003751</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2048,10 +2067,10 @@
         <v>10002</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E46" s="2">
         <v>15003751</v>
@@ -2065,10 +2084,10 @@
         <v>10010</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E47" s="2">
         <v>15003751</v>
@@ -2098,10 +2117,10 @@
         <v>20000</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E50" s="2">
         <v>15003752</v>
@@ -2131,10 +2150,10 @@
         <v>30000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E53" s="2">
         <v>15003753</v>
@@ -2169,10 +2188,10 @@
         <v>40000</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E57" s="2">
         <v>15003753</v>
@@ -2192,10 +2211,10 @@
         <v>40001</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E58" s="2">
         <v>15003753</v>
@@ -2215,10 +2234,10 @@
         <v>40002</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E59" s="2">
         <v>15003753</v>
@@ -2238,10 +2257,10 @@
         <v>40010</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E61" s="2">
         <v>15003753</v>
@@ -2258,10 +2277,10 @@
         <v>40011</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E62" s="2">
         <v>15003753</v>
@@ -2278,10 +2297,10 @@
         <v>50000</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E65" s="2">
         <v>15003753</v>
@@ -2298,10 +2317,10 @@
         <v>60001</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E67" s="2">
         <v>15003753</v>
@@ -2318,10 +2337,10 @@
         <v>60002</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E68" s="2">
         <v>15003753</v>
@@ -2338,10 +2357,10 @@
         <v>90001</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E71" s="2">
         <v>15003751</v>
@@ -2361,10 +2380,10 @@
         <v>90002</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E72" s="2">
         <v>15003751</v>

--- a/data_config/BattleReward.xlsx
+++ b/data_config/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="10095"/>
+    <workbookView windowWidth="16635" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -134,27 +134,33 @@
     <t>通用 自己获得一个随机技能</t>
   </si>
   <si>
+    <t>通用 获得一个装备</t>
+  </si>
+  <si>
+    <t>通用 随机给英雄</t>
+  </si>
+  <si>
+    <t>通用 随机一个队友获得一个随机属性</t>
+  </si>
+  <si>
+    <t>通用 自己获得随机属性</t>
+  </si>
+  <si>
+    <t>通用 获得随机战银</t>
+  </si>
+  <si>
     <t>通用 给自己一个小招随机技能经验</t>
   </si>
   <si>
     <t>通用 随机一个队长技能增加经验</t>
   </si>
   <si>
-    <t>通用 获得一个装备</t>
-  </si>
-  <si>
     <t>通用 复制装备</t>
   </si>
   <si>
     <t>通用 随机复制一个装备（自己和队友和仓库）放到仓库中</t>
   </si>
   <si>
-    <t>通用 随机给英雄</t>
-  </si>
-  <si>
-    <t>通用 随机一个队友获得一个随机属性</t>
-  </si>
-  <si>
     <t>通用 所有队友获得随机属性</t>
   </si>
   <si>
@@ -179,16 +185,10 @@
     <t>通用 所有队友获得生命属性（包含后来的新队友）</t>
   </si>
   <si>
-    <t>通用 自己获得随机属性</t>
-  </si>
-  <si>
     <t>通用 每次准备阶段 自己获得 50% 攻击力属性</t>
   </si>
   <si>
     <t>通用 自己获得 50% 攻击力属性的buff</t>
-  </si>
-  <si>
-    <t>通用 获得随机战银</t>
   </si>
   <si>
     <t>通用 获得人口</t>
@@ -443,12 +443,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -769,7 +775,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,16 +799,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -811,90 +817,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -913,6 +922,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1263,14 +1278,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7140" ySplit="2715" topLeftCell="D22" activePane="bottomRight"/>
+      <pane xSplit="7140" ySplit="2715" topLeftCell="E3" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1279,7 +1294,7 @@
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="26.375" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.625" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="24.25" customWidth="1"/>
@@ -1289,7 +1304,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1301,7 +1316,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1330,7 +1345,7 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1347,19 +1362,19 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
@@ -1373,70 +1388,50 @@
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>10101</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F7" s="1">
-        <v>100101</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" customFormat="1" spans="3:6">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="3:6">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>10201</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100201</v>
+        <v>10101</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100101</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1445,60 +1440,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" customFormat="1" spans="1:8">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>10301</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>30101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F9" s="2">
+        <v>300101</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:8">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>40101</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F9" s="1">
-        <v>100301</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="E10" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F10" s="2">
+        <v>400101</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>40201</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F11" s="2">
+        <v>400201</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>30101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F12" s="1">
-        <v>300101</v>
+        <v>50101</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F12" s="2">
+        <v>500101</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1507,24 +1544,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" customFormat="1" spans="1:8">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>30201</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>60101</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F13" s="1">
-        <v>300201</v>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F13" s="2">
+        <v>600101</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1534,873 +1571,1071 @@
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>40101</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38">
+        <v>10101</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F38" s="2">
+        <v>100101</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39">
+        <v>10201</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F17" s="1">
-        <v>400101</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>40201</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="E39" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F39" s="2">
+        <v>100201</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40">
+        <v>10301</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F18" s="1">
-        <v>400201</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>40301</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F19" s="1">
-        <v>400301</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>40401</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F20" s="1">
-        <v>400401</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>40501</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F21" s="1">
-        <v>400501</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>40601</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F22" s="1">
-        <v>400601</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:8">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>40701</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F23" s="1">
-        <v>400701</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>40801</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F24" s="1">
-        <v>400801</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>50101</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F27" s="1">
-        <v>500101</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:8">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>50201</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F28" s="1">
-        <v>500201</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:8">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>50301</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F29" s="1">
-        <v>500301</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>60101</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F32" s="1">
-        <v>600101</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>60201</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F33" s="1">
-        <v>600201</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>60301</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F34" s="1">
-        <v>600301</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>70101</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>1000101</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F40" s="2">
+        <v>100301</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43">
+        <v>30101</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F43" s="2">
+        <v>300101</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44">
-        <v>10000</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>30201</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F44" s="2">
+        <v>300201</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45">
-        <v>10001</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46">
-        <v>10002</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F46" s="1">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47">
-        <v>10010</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F47" s="1">
-        <v>10010</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48">
+        <v>40101</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F48" s="2">
+        <v>400101</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49">
+        <v>40201</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F49" s="2">
+        <v>400201</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50">
-        <v>20000</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="2">
-        <v>15003752</v>
-      </c>
-      <c r="F50" s="1">
-        <v>20000</v>
+        <v>40301</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F50" s="2">
+        <v>400301</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51">
+        <v>40401</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F51" s="2">
+        <v>400401</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52">
+        <v>40501</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F52" s="2">
+        <v>400501</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53">
-        <v>30000</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F53" s="1">
-        <v>30000</v>
+        <v>40601</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F53" s="2">
+        <v>400601</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="3:5">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="2:8">
+      <c r="B54">
+        <v>40701</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F54" s="2">
+        <v>400701</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55">
+        <v>40801</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F55" s="2">
+        <v>400801</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57">
-        <v>40000</v>
-      </c>
-      <c r="C57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="2">
-        <v>15003753</v>
-      </c>
-      <c r="F57" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58">
+        <v>50101</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F58" s="2">
+        <v>500101</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="2:8">
+      <c r="B59">
+        <v>50201</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F59" s="2">
+        <v>500201</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="2:8">
+      <c r="B60">
+        <v>50301</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F60" s="2">
+        <v>500301</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63">
+        <v>60101</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F63" s="2">
+        <v>600101</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64">
+        <v>60201</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F64" s="2">
+        <v>600201</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65">
+        <v>60301</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F65" s="2">
+        <v>600301</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67">
+        <v>70101</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70">
+        <v>1000101</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="3:6">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75">
+        <v>10000</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76">
+        <v>10001</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77">
+        <v>10002</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F77" s="2">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78">
+        <v>10010</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F78" s="2">
+        <v>10010</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81">
+        <v>20000</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15003752</v>
+      </c>
+      <c r="F81" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84">
+        <v>30000</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F84" s="2">
+        <v>30000</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88">
+        <v>40000</v>
+      </c>
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="3">
+        <v>15003753</v>
+      </c>
+      <c r="F88" s="2">
+        <v>40000</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89">
         <v>40001</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C89" t="s">
         <v>59</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D89" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E89" s="3">
         <v>15003753</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F89" s="2">
         <v>40001</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
-      <c r="B59">
+    <row r="90" spans="2:8">
+      <c r="B90">
         <v>40002</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C90" t="s">
         <v>60</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D90" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E90" s="3">
         <v>15003753</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F90" s="2">
         <v>40002</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
-      <c r="B61">
+    <row r="92" spans="2:7">
+      <c r="B92">
         <v>40010</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C92" t="s">
         <v>61</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D92" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E92" s="3">
         <v>15003753</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F92" s="2">
         <v>40010</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="2:7">
-      <c r="B62">
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="2:7">
+      <c r="B93">
         <v>40011</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C93" t="s">
         <v>62</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D93" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E93" s="3">
         <v>15003753</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F93" s="2">
         <v>40011</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="2:7">
-      <c r="B65">
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="2:7">
+      <c r="B96">
         <v>50000</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C96" t="s">
         <v>63</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D96" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E96" s="3">
         <v>15003753</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F96" s="2">
         <v>50000</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67">
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98">
         <v>60001</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C98" t="s">
         <v>64</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D98" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E98" s="3">
         <v>15003753</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F98" s="2">
         <v>60001</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="2:8">
-      <c r="B68">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="2:8">
+      <c r="B99">
         <v>60002</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C99" t="s">
         <v>65</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D99" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E99" s="3">
         <v>15003753</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F99" s="2">
         <v>60002</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="2:8">
-      <c r="B71">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="2:8">
+      <c r="B102">
         <v>90001</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="E102" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F102" s="2">
         <v>90001</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="1" spans="2:8">
-      <c r="B72">
+    <row r="103" customFormat="1" spans="2:8">
+      <c r="B103">
         <v>90002</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E72" s="2">
-        <v>15003751</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="E103" s="3">
+        <v>15003751</v>
+      </c>
+      <c r="F103" s="2">
         <v>90002</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:6">
-      <c r="E74" s="2"/>
-      <c r="F74" s="6"/>
+    <row r="105" spans="5:6">
+      <c r="E105" s="3"/>
+      <c r="F105" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
